--- a/산출물/테이블명세서/테이블 명세서.xlsx
+++ b/산출물/테이블명세서/테이블 명세서.xlsx
@@ -5,7 +5,7 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansck\Desktop\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansck\Desktop\Project\1st_project\SKN20-1ST-5TEAM-\산출물\테이블명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
@@ -30,217 +30,217 @@
     <x:t>AUTO-INCREMENT</x:t>
   </x:si>
   <x:si>
+    <x:t>자동 증분 ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1st_project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>schema name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>question</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LONGTEXT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAQ 일련번호</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOT NULL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eco_monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>column name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>table name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>date_key</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025.09.24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dim_monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gasoline</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ice_monthly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>압축 천연가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>length</x:t>
+  </x:si>
+  <x:si>
+    <x:t>diesel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>type</x:t>
+  </x:si>
+  <x:si>
+    <x:t>db name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>하이브리드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dbms</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테이블명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시스템/서비스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참조테이블</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Default</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK, FK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정의/설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MySQL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프로젝트명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>answer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>액화석유가스</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VARCHAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고유연월</x:t>
+  </x:si>
+  <x:si>
+    <x:t>year</x:t>
+  </x:si>
+  <x:si>
+    <x:t>company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>month</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기업 FAQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fcev</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기업 이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>idfaq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2015.01 ~ 2024.12 까지의  연도와 월</x:t>
+  </x:si>
+  <x:si>
     <x:t>Table Specification</x:t>
   </x:si>
   <x:si>
-    <x:t>친환경 차량과 내연기관 차량의 10년간 변화 추이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2015.01 ~ 2024.12 까지의  연도와 월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SKN_1ST_PROJECT_친환경 차량과 내연기관 차량의 10년간 변화 추이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자동 증분 ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOT NULL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>schema name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>eco_monthly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>column name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>table name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>question</x:t>
-  </x:si>
-  <x:si>
-    <x:t>date_key</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2025.09.24</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dim_monthly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAQ 일련번호</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LONGTEXT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gasoline</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ice_monthly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1st_project</x:t>
-  </x:si>
-  <x:si>
-    <x:t>dbms</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테이블명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프로젝트명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참조테이블</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MySQL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>db name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>압축 천연가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시스템/서비스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>하이브리드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>type</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Default</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정의/설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>length</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PK, FK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>answer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>diesel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>액화석유가스</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기업 이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고유연월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>year</x:t>
-  </x:si>
-  <x:si>
-    <x:t>month</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VARCHAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>idfaq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기업 FAQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fcev</x:t>
+    <x:t>SKN_1ST_PROJECT_친환경 차량과 비친환경 차량의 10년간 변화 추이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>INT</x:t>
   </x:si>
   <x:si>
     <x:t>전기</x:t>
   </x:si>
   <x:si>
-    <x:t>INT</x:t>
+    <x:t>PK</x:t>
   </x:si>
   <x:si>
     <x:t>기타</x:t>
   </x:si>
   <x:si>
-    <x:t>PK</x:t>
-  </x:si>
-  <x:si>
     <x:t>답변</x:t>
   </x:si>
   <x:si>
+    <x:t>lpg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휘발유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
     <x:t>etc</x:t>
   </x:si>
   <x:si>
-    <x:t>비고</x:t>
+    <x:t>질문</x:t>
+  </x:si>
+  <x:si>
+    <x:t>faq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no</x:t>
+  </x:si>
+  <x:si>
+    <x:t>컬럼명</x:t>
   </x:si>
   <x:si>
     <x:t>월</x:t>
   </x:si>
   <x:si>
-    <x:t>no</x:t>
+    <x:t>작성일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>경유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>문창교</x:t>
+  </x:si>
+  <x:si>
+    <x:t>연도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ev</x:t>
   </x:si>
   <x:si>
     <x:t>Key</x:t>
   </x:si>
   <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>컬럼명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>질문</x:t>
-  </x:si>
-  <x:si>
-    <x:t>faq</x:t>
-  </x:si>
-  <x:si>
-    <x:t>cng</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성일</x:t>
-  </x:si>
-  <x:si>
     <x:t>4G</x:t>
   </x:si>
   <x:si>
-    <x:t>NN</x:t>
+    <x:t>수소</x:t>
   </x:si>
   <x:si>
     <x:t>hev</x:t>
   </x:si>
   <x:si>
-    <x:t>수소</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휘발유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>경유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>연도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ev</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문창교</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lpg</x:t>
+    <x:t>친환경 차량과 비친환경 차량의 10년간 변화 추이</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1118,7 +1118,7 @@
   <x:dimension ref="A1:K38"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="N8" activeCellId="0" sqref="N8:N8"/>
+      <x:selection activeCell="L6" activeCellId="0" sqref="L6:L6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1132,7 +1132,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:11" ht="17.25" customHeight="1">
       <x:c r="A1" s="25" t="s">
-        <x:v>3</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B1" s="26"/>
       <x:c r="C1" s="26"/>
@@ -1147,11 +1147,11 @@
     </x:row>
     <x:row r="2" spans="1:11" ht="17.25" customHeight="1">
       <x:c r="A2" s="28" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B2" s="29"/>
       <x:c r="C2" s="30" t="s">
-        <x:v>4</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="D2" s="31"/>
       <x:c r="E2" s="31"/>
@@ -1164,11 +1164,11 @@
     </x:row>
     <x:row r="3" spans="1:11" ht="17.25" customHeight="1">
       <x:c r="A3" s="28" t="s">
-        <x:v>58</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B3" s="29"/>
       <x:c r="C3" s="30" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D3" s="33"/>
       <x:c r="E3" s="33"/>
@@ -1185,7 +1185,7 @@
       </x:c>
       <x:c r="B4" s="29"/>
       <x:c r="C4" s="30" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D4" s="33"/>
       <x:c r="E4" s="33"/>
@@ -1198,11 +1198,11 @@
     </x:row>
     <x:row r="5" spans="1:11" ht="17.25" customHeight="1">
       <x:c r="A5" s="34" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="29"/>
       <x:c r="C5" s="35" t="s">
-        <x:v>6</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D5" s="33"/>
       <x:c r="E5" s="33"/>
@@ -1215,11 +1215,11 @@
     </x:row>
     <x:row r="6" spans="1:11" ht="18" customHeight="1">
       <x:c r="A6" s="34" t="s">
-        <x:v>22</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B6" s="29"/>
       <x:c r="C6" s="36" t="s">
-        <x:v>26</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D6" s="33"/>
       <x:c r="E6" s="33"/>
@@ -1232,11 +1232,11 @@
     </x:row>
     <x:row r="7" spans="1:11" ht="17.25" customHeight="1">
       <x:c r="A7" s="37" t="s">
-        <x:v>27</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B7" s="38"/>
       <x:c r="C7" s="39" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D7" s="38"/>
       <x:c r="E7" s="38"/>
@@ -1249,11 +1249,11 @@
     </x:row>
     <x:row r="8" spans="1:11" ht="17.25" customHeight="1">
       <x:c r="A8" s="37" t="s">
-        <x:v>9</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B8" s="38"/>
       <x:c r="C8" s="40" t="s">
-        <x:v>21</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="D8" s="38"/>
       <x:c r="E8" s="38"/>
@@ -1270,15 +1270,15 @@
       </x:c>
       <x:c r="B9" s="38"/>
       <x:c r="C9" s="41" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D9" s="42"/>
       <x:c r="E9" s="37" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F9" s="38"/>
       <x:c r="G9" s="41" t="s">
-        <x:v>5</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="H9" s="43"/>
       <x:c r="I9" s="43"/>
@@ -1287,34 +1287,34 @@
     </x:row>
     <x:row r="10" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A10" s="12" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="12" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="12" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D10" s="12" t="s">
-        <x:v>31</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E10" s="12" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F10" s="12" t="s">
-        <x:v>57</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G10" s="12" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H10" s="12" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I10" s="12" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J10" s="12" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K10" s="12" t="s">
         <x:v>54</x:v>
@@ -1325,22 +1325,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D11" s="13" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E11" s="13">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F11" s="13" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G11" s="13" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H11" s="14"/>
       <x:c r="I11" s="2"/>
@@ -1352,20 +1352,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B12" s="10" t="s">
-        <x:v>42</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C12" s="10" t="s">
-        <x:v>70</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="D12" s="15" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E12" s="15">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F12" s="15"/>
       <x:c r="G12" s="15" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H12" s="16"/>
       <x:c r="I12" s="10"/>
@@ -1377,20 +1377,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C13" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D13" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E13" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F13" s="17"/>
       <x:c r="G13" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H13" s="18"/>
       <x:c r="I13" s="11"/>
@@ -1420,7 +1420,7 @@
       </x:c>
       <x:c r="D15" s="47"/>
       <x:c r="E15" s="44" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F15" s="45"/>
       <x:c r="G15" s="46" t="s">
@@ -1433,34 +1433,34 @@
     </x:row>
     <x:row r="16" spans="1:11" ht="16.5" customHeight="1">
       <x:c r="A16" s="22" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B16" s="22" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C16" s="22" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D16" s="22" t="s">
-        <x:v>31</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E16" s="22" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F16" s="22" t="s">
-        <x:v>57</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G16" s="22" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H16" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I16" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J16" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K16" s="22" t="s">
         <x:v>54</x:v>
@@ -1471,27 +1471,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B17" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C17" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D17" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E17" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F17" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G17" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H17" s="18"/>
       <x:c r="I17" s="11"/>
       <x:c r="J17" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K17" s="11"/>
     </x:row>
@@ -1500,20 +1500,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B18" s="11" t="s">
-        <x:v>71</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C18" s="11" t="s">
         <x:v>48</x:v>
       </x:c>
       <x:c r="D18" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E18" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F18" s="17"/>
       <x:c r="G18" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H18" s="18"/>
       <x:c r="I18" s="11"/>
@@ -1525,20 +1525,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B19" s="3" t="s">
-        <x:v>62</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C19" s="21" t="s">
-        <x:v>28</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D19" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E19" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F19" s="21"/>
       <x:c r="G19" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H19" s="3"/>
       <x:c r="I19" s="3"/>
@@ -1550,20 +1550,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B20" s="3" t="s">
-        <x:v>66</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C20" s="21" t="s">
-        <x:v>30</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D20" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E20" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F20" s="21"/>
       <x:c r="G20" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H20" s="3"/>
       <x:c r="I20" s="3"/>
@@ -1575,20 +1575,20 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B21" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C21" s="21" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="D21" s="17" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="C21" s="21" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D21" s="17" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="E21" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F21" s="21"/>
       <x:c r="G21" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H21" s="3"/>
       <x:c r="I21" s="3"/>
@@ -1600,20 +1600,20 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B22" s="3" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C22" s="21" t="s">
         <x:v>50</x:v>
       </x:c>
       <x:c r="D22" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E22" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F22" s="21"/>
       <x:c r="G22" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H22" s="3"/>
       <x:c r="I22" s="3"/>
@@ -1639,11 +1639,11 @@
       </x:c>
       <x:c r="B24" s="50"/>
       <x:c r="C24" s="51" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D24" s="52"/>
       <x:c r="E24" s="49" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F24" s="50"/>
       <x:c r="G24" s="51" t="s">
@@ -1656,34 +1656,34 @@
     </x:row>
     <x:row r="25" spans="1:11" ht="17.25" customHeight="1">
       <x:c r="A25" s="22" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B25" s="22" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C25" s="22" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D25" s="22" t="s">
-        <x:v>31</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E25" s="22" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F25" s="22" t="s">
-        <x:v>57</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G25" s="22" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H25" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I25" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J25" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K25" s="22" t="s">
         <x:v>54</x:v>
@@ -1694,27 +1694,27 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B26" s="11" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C26" s="11" t="s">
-        <x:v>41</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D26" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E26" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F26" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G26" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H26" s="23"/>
       <x:c r="I26" s="23"/>
       <x:c r="J26" s="11" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="K26" s="11"/>
     </x:row>
@@ -1723,20 +1723,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B27" s="11" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C27" s="11" t="s">
-        <x:v>68</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D27" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E27" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F27" s="17"/>
       <x:c r="G27" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H27" s="18"/>
       <x:c r="I27" s="11"/>
@@ -1748,20 +1748,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B28" s="11" t="s">
-        <x:v>37</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C28" s="11" t="s">
-        <x:v>69</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="D28" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E28" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F28" s="17"/>
       <x:c r="G28" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H28" s="18"/>
       <x:c r="I28" s="11"/>
@@ -1773,20 +1773,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B29" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C29" s="11" t="s">
-        <x:v>38</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D29" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E29" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F29" s="17"/>
       <x:c r="G29" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H29" s="18"/>
       <x:c r="I29" s="11"/>
@@ -1812,15 +1812,15 @@
       </x:c>
       <x:c r="B31" s="45"/>
       <x:c r="C31" s="46" t="s">
-        <x:v>61</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D31" s="47"/>
       <x:c r="E31" s="44" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F31" s="45"/>
       <x:c r="G31" s="46" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="H31" s="48"/>
       <x:c r="I31" s="48"/>
@@ -1829,34 +1829,34 @@
     </x:row>
     <x:row r="32" spans="1:11" customHeight="1">
       <x:c r="A32" s="22" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B32" s="22" t="s">
         <x:v>11</x:v>
       </x:c>
       <x:c r="C32" s="22" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D32" s="22" t="s">
-        <x:v>31</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E32" s="22" t="s">
-        <x:v>34</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F32" s="22" t="s">
-        <x:v>57</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="G32" s="22" t="s">
-        <x:v>65</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="H32" s="22" t="s">
-        <x:v>32</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I32" s="22" t="s">
-        <x:v>33</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="J32" s="22" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="K32" s="22" t="s">
         <x:v>54</x:v>
@@ -1867,28 +1867,28 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B33" s="11" t="s">
-        <x:v>45</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C33" s="11" t="s">
-        <x:v>17</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D33" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="E33" s="17">
         <x:v>10</x:v>
       </x:c>
       <x:c r="F33" s="17" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="G33" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H33" s="18" t="s">
         <x:v>2</x:v>
       </x:c>
       <x:c r="I33" s="11" t="s">
-        <x:v>7</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="J33" s="11"/>
       <x:c r="K33" s="11"/>
@@ -1898,20 +1898,20 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B34" s="11" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C34" s="11" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D34" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E34" s="17">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F34" s="17"/>
       <x:c r="G34" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H34" s="18"/>
       <x:c r="I34" s="11"/>
@@ -1923,20 +1923,20 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B35" s="11" t="s">
-        <x:v>13</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C35" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D35" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E35" s="17">
         <x:v>45</x:v>
       </x:c>
       <x:c r="F35" s="17"/>
       <x:c r="G35" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H35" s="18"/>
       <x:c r="I35" s="11"/>
@@ -1948,20 +1948,20 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B36" s="11" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C36" s="11" t="s">
-        <x:v>52</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D36" s="17" t="s">
-        <x:v>18</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="E36" s="17" t="s">
-        <x:v>64</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="F36" s="17"/>
       <x:c r="G36" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="H36" s="18"/>
       <x:c r="I36" s="11"/>
